--- a/R_C14_rates calculation/colours_cycle.xlsx
+++ b/R_C14_rates calculation/colours_cycle.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deniseong/Documents/GitHub/TAN1810_C14/R_C14_rates calculation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEFC45C1-380A-9F4B-A84E-38064BCCD59A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{417BB8E7-3A60-0746-A397-683EA19E02CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16480" xr2:uid="{9959AD80-3573-194E-BAC2-C518CF80D496}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16480" activeTab="2" xr2:uid="{9959AD80-3573-194E-BAC2-C518CF80D496}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
     <t>cycle</t>
   </si>
@@ -70,6 +72,39 @@
   </si>
   <si>
     <t>#990000</t>
+  </si>
+  <si>
+    <t>#B2182B</t>
+  </si>
+  <si>
+    <t>#F4A582</t>
+  </si>
+  <si>
+    <t>#2166AC</t>
+  </si>
+  <si>
+    <t>#92C5DE</t>
+  </si>
+  <si>
+    <t>antarctic</t>
+  </si>
+  <si>
+    <t>tropical</t>
+  </si>
+  <si>
+    <t>subtropical</t>
+  </si>
+  <si>
+    <t>subantarctic</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+  <si>
+    <t>ST</t>
   </si>
 </sst>
 </file>
@@ -424,8 +459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{245E3022-FA4C-1649-9F6C-42EECD9F5BD9}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -481,4 +516,114 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB59A2D8-9BF8-A340-8585-57A337229812}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69B880A4-5A05-2041-BF2C-5C9A45F67A87}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>